--- a/Spektra.xlsx
+++ b/Spektra.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>CFX2</t>
   </si>
@@ -77,12 +77,18 @@
   <si>
     <t>385 nm</t>
   </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +99,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -164,10 +177,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12660018617141877"/>
+          <c:x val="0.1266001861714188"/>
           <c:y val="0.1198901218227887"/>
-          <c:w val="0.67481659167300501"/>
-          <c:h val="0.73575226437658048"/>
+          <c:w val="0.67481659167300512"/>
+          <c:h val="0.7357522643765807"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -841,11 +854,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68996096"/>
-        <c:axId val="68998656"/>
+        <c:axId val="91667840"/>
+        <c:axId val="91682304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68996096"/>
+        <c:axId val="91667840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -873,12 +886,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68998656"/>
+        <c:crossAx val="91682304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68998656"/>
+        <c:axId val="91682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +917,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68996096"/>
+        <c:crossAx val="91667840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,6 +931,332 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>wt</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$36:$AP$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19768</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15069</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10931</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11254</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11948</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10486</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7730</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="101277696"/>
+        <c:axId val="101102336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101277696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="525"/>
+          <c:min val="320"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101102336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="101102336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101277696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1723,11 +2062,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69572480"/>
-        <c:axId val="69574656"/>
+        <c:axId val="93044736"/>
+        <c:axId val="93046656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69572480"/>
+        <c:axId val="93044736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,12 +2092,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69574656"/>
+        <c:crossAx val="93046656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69574656"/>
+        <c:axId val="93046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +2124,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69572480"/>
+        <c:crossAx val="93044736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2604,11 +2943,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68883584"/>
-        <c:axId val="68885504"/>
+        <c:axId val="93092096"/>
+        <c:axId val="93102464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68883584"/>
+        <c:axId val="93092096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2973,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68885504"/>
+        <c:crossAx val="93102464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68885504"/>
+        <c:axId val="93102464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +3005,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68883584"/>
+        <c:crossAx val="93092096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3500,11 +3839,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69678976"/>
-        <c:axId val="69681152"/>
+        <c:axId val="93149440"/>
+        <c:axId val="93163904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69678976"/>
+        <c:axId val="93149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,12 +3869,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69681152"/>
+        <c:crossAx val="93163904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69681152"/>
+        <c:axId val="93163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3901,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69678976"/>
+        <c:crossAx val="93149440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4381,11 +4720,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="69726592"/>
-        <c:axId val="69728512"/>
+        <c:axId val="93191552"/>
+        <c:axId val="93197824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69726592"/>
+        <c:axId val="93191552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,12 +4751,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69728512"/>
+        <c:crossAx val="93197824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69728512"/>
+        <c:axId val="93197824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4783,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69726592"/>
+        <c:crossAx val="93191552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5904,11 +6243,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69973504"/>
-        <c:axId val="69975424"/>
+        <c:axId val="93324416"/>
+        <c:axId val="93326336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69973504"/>
+        <c:axId val="93324416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="525"/>
@@ -5936,12 +6275,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69975424"/>
+        <c:crossAx val="93326336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69975424"/>
+        <c:axId val="93326336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +6306,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69973504"/>
+        <c:crossAx val="93324416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7127,12 +7466,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="70039808"/>
-        <c:axId val="70046080"/>
+        <c:axId val="93397376"/>
+        <c:axId val="93399296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70039808"/>
+        <c:axId val="93397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -7160,12 +7498,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70046080"/>
+        <c:crossAx val="93399296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70046080"/>
+        <c:axId val="93399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7191,7 +7529,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70039808"/>
+        <c:crossAx val="93397376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8051,11 +8389,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70161152"/>
-        <c:axId val="70163072"/>
+        <c:axId val="93452928"/>
+        <c:axId val="100078336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70161152"/>
+        <c:axId val="93452928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -8083,12 +8421,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70163072"/>
+        <c:crossAx val="100078336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70163072"/>
+        <c:axId val="100078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8114,7 +8452,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70161152"/>
+        <c:crossAx val="93452928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8143,20 +8481,971 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Product</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$39:$AP$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5355</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50888</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54794</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48450</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10595</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10574</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11693</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12777</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13944</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14945</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14989</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12836</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10542</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8298</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4126</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$36:$AP$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>3314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36518</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32690</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19768</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15069</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10931</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11254</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11948</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10486</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7730</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CFX2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$1:$AP$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$4:$AP$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12573</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16775</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23756</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27329</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48644</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51694</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55512</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68539</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63483</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55418</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8131</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="123115008"/>
+        <c:axId val="123113472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="123115008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="520"/>
+          <c:min val="320"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>λ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t> / [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123113472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123113472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Intensity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123115008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>567829</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>132535</xdr:rowOff>
+      <xdr:colOff>758329</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>156347</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8178,15 +9467,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>489858</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>525577</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>748395</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22114</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8208,15 +9497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:colOff>440531</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>639537</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:colOff>699068</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>181996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8380,6 +9669,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8673,10 +10022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG35"/>
+  <dimension ref="A1:BG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10401,9 +11750,437 @@
         <v>153</v>
       </c>
     </row>
+    <row r="36" spans="1:58">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>3314</v>
+      </c>
+      <c r="C36">
+        <v>3785</v>
+      </c>
+      <c r="D36">
+        <v>4506</v>
+      </c>
+      <c r="E36">
+        <v>5307</v>
+      </c>
+      <c r="F36">
+        <v>6900</v>
+      </c>
+      <c r="G36">
+        <v>8329</v>
+      </c>
+      <c r="H36">
+        <v>11936</v>
+      </c>
+      <c r="I36">
+        <v>14615</v>
+      </c>
+      <c r="J36">
+        <v>17518</v>
+      </c>
+      <c r="K36">
+        <v>22315</v>
+      </c>
+      <c r="L36">
+        <v>29462</v>
+      </c>
+      <c r="M36">
+        <v>30827</v>
+      </c>
+      <c r="N36">
+        <v>34788</v>
+      </c>
+      <c r="O36">
+        <v>37651</v>
+      </c>
+      <c r="P36">
+        <v>39045</v>
+      </c>
+      <c r="Q36">
+        <v>40597</v>
+      </c>
+      <c r="R36">
+        <v>41474</v>
+      </c>
+      <c r="S36">
+        <v>39516</v>
+      </c>
+      <c r="T36">
+        <v>36518</v>
+      </c>
+      <c r="U36">
+        <v>32690</v>
+      </c>
+      <c r="V36">
+        <v>27709</v>
+      </c>
+      <c r="W36">
+        <v>24301</v>
+      </c>
+      <c r="X36">
+        <v>19768</v>
+      </c>
+      <c r="Y36">
+        <v>15069</v>
+      </c>
+      <c r="Z36">
+        <v>11010</v>
+      </c>
+      <c r="AA36">
+        <v>10162</v>
+      </c>
+      <c r="AB36">
+        <v>10030</v>
+      </c>
+      <c r="AC36">
+        <v>10773</v>
+      </c>
+      <c r="AD36">
+        <v>10931</v>
+      </c>
+      <c r="AE36">
+        <v>11254</v>
+      </c>
+      <c r="AF36">
+        <v>11891</v>
+      </c>
+      <c r="AG36">
+        <v>12175</v>
+      </c>
+      <c r="AH36">
+        <v>11948</v>
+      </c>
+      <c r="AI36">
+        <v>10486</v>
+      </c>
+      <c r="AJ36">
+        <v>9747</v>
+      </c>
+      <c r="AK36">
+        <v>7730</v>
+      </c>
+      <c r="AL36">
+        <v>5984</v>
+      </c>
+      <c r="AM36">
+        <v>2982</v>
+      </c>
+      <c r="AN36">
+        <v>1749</v>
+      </c>
+      <c r="AO36">
+        <v>684</v>
+      </c>
+      <c r="AP36">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>3045</v>
+      </c>
+      <c r="C39">
+        <v>3651</v>
+      </c>
+      <c r="D39">
+        <v>4399</v>
+      </c>
+      <c r="E39">
+        <v>5355</v>
+      </c>
+      <c r="F39">
+        <v>7524</v>
+      </c>
+      <c r="G39">
+        <v>9356</v>
+      </c>
+      <c r="H39">
+        <v>14534</v>
+      </c>
+      <c r="I39">
+        <v>18115</v>
+      </c>
+      <c r="J39">
+        <v>22104</v>
+      </c>
+      <c r="K39">
+        <v>28014</v>
+      </c>
+      <c r="L39">
+        <v>38159</v>
+      </c>
+      <c r="M39">
+        <v>40713</v>
+      </c>
+      <c r="N39">
+        <v>46208</v>
+      </c>
+      <c r="O39">
+        <v>50888</v>
+      </c>
+      <c r="P39">
+        <v>52674</v>
+      </c>
+      <c r="Q39">
+        <v>54794</v>
+      </c>
+      <c r="R39">
+        <v>56204</v>
+      </c>
+      <c r="S39">
+        <v>53048</v>
+      </c>
+      <c r="T39">
+        <v>48450</v>
+      </c>
+      <c r="U39">
+        <v>43625</v>
+      </c>
+      <c r="V39">
+        <v>36023</v>
+      </c>
+      <c r="W39">
+        <v>30949</v>
+      </c>
+      <c r="X39">
+        <v>24031</v>
+      </c>
+      <c r="Y39">
+        <v>17497</v>
+      </c>
+      <c r="Z39">
+        <v>11879</v>
+      </c>
+      <c r="AA39">
+        <v>10595</v>
+      </c>
+      <c r="AB39">
+        <v>10574</v>
+      </c>
+      <c r="AC39">
+        <v>11693</v>
+      </c>
+      <c r="AD39">
+        <v>12161</v>
+      </c>
+      <c r="AE39">
+        <v>12777</v>
+      </c>
+      <c r="AF39">
+        <v>13944</v>
+      </c>
+      <c r="AG39">
+        <v>14945</v>
+      </c>
+      <c r="AH39">
+        <v>14989</v>
+      </c>
+      <c r="AI39">
+        <v>13481</v>
+      </c>
+      <c r="AJ39">
+        <v>12836</v>
+      </c>
+      <c r="AK39">
+        <v>10542</v>
+      </c>
+      <c r="AL39">
+        <v>8298</v>
+      </c>
+      <c r="AM39">
+        <v>4126</v>
+      </c>
+      <c r="AN39">
+        <v>2364</v>
+      </c>
+      <c r="AO39">
+        <v>869</v>
+      </c>
+      <c r="AP39">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40">
+        <v>45</v>
+      </c>
+      <c r="AC40">
+        <v>47</v>
+      </c>
+      <c r="AD40">
+        <v>54</v>
+      </c>
+      <c r="AE40">
+        <v>67</v>
+      </c>
+      <c r="AF40">
+        <v>93</v>
+      </c>
+      <c r="AG40">
+        <v>177</v>
+      </c>
+      <c r="AH40">
+        <v>379</v>
+      </c>
+      <c r="AI40">
+        <v>763</v>
+      </c>
+      <c r="AJ40">
+        <v>1585</v>
+      </c>
+      <c r="AK40">
+        <v>2679</v>
+      </c>
+      <c r="AL40">
+        <v>3779</v>
+      </c>
+      <c r="AM40">
+        <v>5003</v>
+      </c>
+      <c r="AN40">
+        <v>5507</v>
+      </c>
+      <c r="AO40">
+        <v>5409</v>
+      </c>
+      <c r="AP40">
+        <v>4519</v>
+      </c>
+      <c r="AQ40">
+        <v>3868</v>
+      </c>
+      <c r="AR40">
+        <v>2990</v>
+      </c>
+      <c r="AS40">
+        <v>2500</v>
+      </c>
+      <c r="AT40">
+        <v>2135</v>
+      </c>
+      <c r="AU40">
+        <v>1891</v>
+      </c>
+      <c r="AV40">
+        <v>1598</v>
+      </c>
+      <c r="AW40">
+        <v>1353</v>
+      </c>
+      <c r="AX40">
+        <v>1055</v>
+      </c>
+      <c r="AY40">
+        <v>862</v>
+      </c>
+      <c r="AZ40">
+        <v>653</v>
+      </c>
+      <c r="BA40">
+        <v>516</v>
+      </c>
+      <c r="BB40">
+        <v>422</v>
+      </c>
+      <c r="BC40">
+        <v>343</v>
+      </c>
+      <c r="BD40">
+        <v>292</v>
+      </c>
+      <c r="BE40">
+        <v>243</v>
+      </c>
+      <c r="BF40">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL41">
+        <v>5738</v>
+      </c>
+      <c r="AM41">
+        <v>6120</v>
+      </c>
+      <c r="AN41">
+        <v>6149</v>
+      </c>
+      <c r="AO41">
+        <v>5651</v>
+      </c>
+      <c r="AP41">
+        <v>4674</v>
+      </c>
+      <c r="AQ41">
+        <v>4113</v>
+      </c>
+      <c r="AR41">
+        <v>3342</v>
+      </c>
+      <c r="AS41">
+        <v>2877</v>
+      </c>
+      <c r="AT41">
+        <v>2464</v>
+      </c>
+      <c r="AU41">
+        <v>2123</v>
+      </c>
+      <c r="AV41">
+        <v>1747</v>
+      </c>
+      <c r="AW41">
+        <v>1451</v>
+      </c>
+      <c r="AX41">
+        <v>1095</v>
+      </c>
+      <c r="AY41">
+        <v>937</v>
+      </c>
+      <c r="AZ41">
+        <v>709</v>
+      </c>
+      <c r="BA41">
+        <v>592</v>
+      </c>
+      <c r="BB41">
+        <v>489</v>
+      </c>
+      <c r="BC41">
+        <v>401</v>
+      </c>
+      <c r="BD41">
+        <v>330</v>
+      </c>
+      <c r="BE41">
+        <v>278</v>
+      </c>
+      <c r="BF41">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Spektra.xlsx
+++ b/Spektra.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -177,10 +178,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1266001861714188"/>
+          <c:x val="0.12660018617141883"/>
           <c:y val="0.1198901218227887"/>
-          <c:w val="0.67481659167300512"/>
-          <c:h val="0.7357522643765807"/>
+          <c:w val="0.67481659167300523"/>
+          <c:h val="0.73575226437658081"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -854,11 +855,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91667840"/>
-        <c:axId val="91682304"/>
+        <c:axId val="131092480"/>
+        <c:axId val="131094400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91667840"/>
+        <c:axId val="131092480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -886,12 +887,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91682304"/>
+        <c:crossAx val="131094400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91682304"/>
+        <c:axId val="131094400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +918,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91667840"/>
+        <c:crossAx val="131092480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1222,11 +1223,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="101277696"/>
-        <c:axId val="101102336"/>
+        <c:axId val="131499136"/>
+        <c:axId val="131500672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101277696"/>
+        <c:axId val="131499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="525"/>
@@ -1235,19 +1236,19 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101102336"/>
+        <c:crossAx val="131500672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101102336"/>
+        <c:axId val="131500672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101277696"/>
+        <c:crossAx val="131499136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1256,7 +1257,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2062,11 +2063,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93044736"/>
-        <c:axId val="93046656"/>
+        <c:axId val="131027328"/>
+        <c:axId val="131029248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93044736"/>
+        <c:axId val="131027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2093,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93046656"/>
+        <c:crossAx val="131029248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93046656"/>
+        <c:axId val="131029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2125,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93044736"/>
+        <c:crossAx val="131027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2943,11 +2944,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93092096"/>
-        <c:axId val="93102464"/>
+        <c:axId val="131140224"/>
+        <c:axId val="131142400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93092096"/>
+        <c:axId val="131140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,12 +2974,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93102464"/>
+        <c:crossAx val="131142400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93102464"/>
+        <c:axId val="131142400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3006,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93092096"/>
+        <c:crossAx val="131140224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3839,11 +3840,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93149440"/>
-        <c:axId val="93163904"/>
+        <c:axId val="131177088"/>
+        <c:axId val="131179264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93149440"/>
+        <c:axId val="131177088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3870,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93163904"/>
+        <c:crossAx val="131179264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93163904"/>
+        <c:axId val="131179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3902,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93149440"/>
+        <c:crossAx val="131177088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4720,11 +4721,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93191552"/>
-        <c:axId val="93197824"/>
+        <c:axId val="131297280"/>
+        <c:axId val="131299200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93191552"/>
+        <c:axId val="131297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,12 +4752,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93197824"/>
+        <c:crossAx val="131299200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93197824"/>
+        <c:axId val="131299200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4783,7 +4784,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93191552"/>
+        <c:crossAx val="131297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,143 +6112,143 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$33:$AP$33</c:f>
+              <c:f>Tabelle1!$B$36:$AP$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1415</c:v>
+                  <c:v>3314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1502</c:v>
+                  <c:v>3785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1733</c:v>
+                  <c:v>4506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1923</c:v>
+                  <c:v>5307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2130</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2406</c:v>
+                  <c:v>8329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2818</c:v>
+                  <c:v>11936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2965</c:v>
+                  <c:v>14615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3166</c:v>
+                  <c:v>17518</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3658</c:v>
+                  <c:v>22315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3955</c:v>
+                  <c:v>29462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3570</c:v>
+                  <c:v>30827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3597</c:v>
+                  <c:v>34788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3476</c:v>
+                  <c:v>37651</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3080</c:v>
+                  <c:v>39045</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2907</c:v>
+                  <c:v>40597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2788</c:v>
+                  <c:v>41474</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2697</c:v>
+                  <c:v>39516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2724</c:v>
+                  <c:v>36518</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2709</c:v>
+                  <c:v>32690</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2648</c:v>
+                  <c:v>27709</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2722</c:v>
+                  <c:v>24301</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2992</c:v>
+                  <c:v>19768</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2968</c:v>
+                  <c:v>15069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2912</c:v>
+                  <c:v>11010</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2879</c:v>
+                  <c:v>10162</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2798</c:v>
+                  <c:v>10030</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2743</c:v>
+                  <c:v>10773</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2587</c:v>
+                  <c:v>10931</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2466</c:v>
+                  <c:v>11254</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2330</c:v>
+                  <c:v>11891</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2022</c:v>
+                  <c:v>12175</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1693</c:v>
+                  <c:v>11948</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1355</c:v>
+                  <c:v>10486</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1098</c:v>
+                  <c:v>9747</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>800</c:v>
+                  <c:v>7730</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>582</c:v>
+                  <c:v>5984</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>319</c:v>
+                  <c:v>2982</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>241</c:v>
+                  <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>168</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>264</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93324416"/>
-        <c:axId val="93326336"/>
+        <c:axId val="131229184"/>
+        <c:axId val="131231104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93324416"/>
+        <c:axId val="131229184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="525"/>
@@ -6275,12 +6276,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93326336"/>
+        <c:crossAx val="131231104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93326336"/>
+        <c:axId val="131231104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6307,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93324416"/>
+        <c:crossAx val="131229184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7466,11 +7467,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93397376"/>
-        <c:axId val="93399296"/>
+        <c:axId val="131414656"/>
+        <c:axId val="131425024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93397376"/>
+        <c:axId val="131414656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -7498,12 +7499,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93399296"/>
+        <c:crossAx val="131425024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93399296"/>
+        <c:axId val="131425024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7529,7 +7530,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93397376"/>
+        <c:crossAx val="131414656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8389,11 +8390,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="93452928"/>
-        <c:axId val="100078336"/>
+        <c:axId val="131343488"/>
+        <c:axId val="131345408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93452928"/>
+        <c:axId val="131343488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -8421,12 +8422,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100078336"/>
+        <c:crossAx val="131345408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100078336"/>
+        <c:axId val="131345408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8452,7 +8453,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93452928"/>
+        <c:crossAx val="131343488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9339,12 +9340,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="123115008"/>
-        <c:axId val="123113472"/>
+        <c:axId val="131444736"/>
+        <c:axId val="131397120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123115008"/>
+        <c:axId val="131444736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="520"/>
@@ -9376,12 +9376,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123113472"/>
+        <c:crossAx val="131397120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123113472"/>
+        <c:axId val="131397120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,7 +9407,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123115008"/>
+        <c:crossAx val="131444736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9426,7 +9426,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10024,8 +10024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
